--- a/xlsx/汽車_intext.xlsx
+++ b/xlsx/汽車_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自動駕駛汽車</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_汽車</t>
+    <t>体育运动_体育运动_南非_汽車</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Benz_Patent-Motorwagen_Nummer_1</t>
@@ -15125,7 +15125,7 @@
         <v>802</v>
       </c>
       <c r="G426" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
